--- a/Almanique.xlsx
+++ b/Almanique.xlsx
@@ -211,7 +211,7 @@
     <t>1,112 m</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua/Barbuda</t>
   </si>
   <si>
     <t>Saint John's</t>
@@ -631,7 +631,7 @@
     <t>1,192 m</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia/Herzegovina</t>
   </si>
   <si>
     <t>Sarajevo</t>
@@ -1015,7 +1015,7 @@
     <t>0.25 Tonnes</t>
   </si>
   <si>
-    <t>People's Republic of China</t>
+    <t>China</t>
   </si>
   <si>
     <t>Beijing</t>
@@ -2482,7 +2482,7 @@
     <t>78.97 Tonnes</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic</t>
+    <t>Lao</t>
   </si>
   <si>
     <t>Vientiane</t>
@@ -3733,7 +3733,7 @@
     <t>414 m</t>
   </si>
   <si>
-    <t>Russian Federation</t>
+    <t>Russia</t>
   </si>
   <si>
     <t>Moscow</t>
@@ -3790,7 +3790,7 @@
     <t>1,598 m</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
+    <t>Saint Kitts/Nevis</t>
   </si>
   <si>
     <t>Basseterre</t>
@@ -3871,7 +3871,7 @@
     <t>433 m</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome/Principe</t>
   </si>
   <si>
     <t>Sao Tome</t>
@@ -4810,7 +4810,7 @@
     <t>310 Tonnes</t>
   </si>
   <si>
-    <t>United States of America</t>
+    <t>USA</t>
   </si>
   <si>
     <t>Washington DC</t>
@@ -5046,7 +5046,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
     <numFmt numFmtId="165" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5064,6 +5064,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -5139,8 +5145,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -6527,7 +6533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33">
       <c r="A26" s="8" t="s">
         <v>230</v>
       </c>
